--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88336.75133886033</v>
+        <v>83622.84038449582</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379125</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11433238.51607146</v>
+        <v>11430878.59850978</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7309891749649</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>352.2917963997454</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +741,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>62.46955506727559</v>
+        <v>105.227912264752</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>90.62229892072976</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>146.8340739597079</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>172.1684599888117</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>170.43489270162</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>32.7882824477743</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>108.8954510456217</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>174.908533620531</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>38.18600419906514</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>303.0165969371845</v>
+        <v>286.3029340501295</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>76.09855113612963</v>
       </c>
       <c r="C10" t="n">
-        <v>155.0019546557647</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873669</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905902</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372796</v>
+        <v>43.94866574461616</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5685645847319</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215419</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993882</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>77.51092771101757</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442492</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.74640585612002</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456103</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901695</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326522</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001149</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873669</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905902</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372796</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>96.67147652398953</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>100.6675882927498</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215419</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>74.78375671211791</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177854</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465765</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681706</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456103</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845443</v>
+        <v>99.56779140278461</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001149</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697374</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277472</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059311</v>
@@ -2138,7 +2138,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.325771887932</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2567,13 +2567,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943229</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X28" t="n">
         <v>137.7482445205302</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943229</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383891</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828922</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431754</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459995</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643968</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931879</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908606</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147819</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805023</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922216</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367808</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792054</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>862.6879508334396</v>
+        <v>587.2578783484167</v>
       </c>
       <c r="C2" t="n">
-        <v>469.5124493363701</v>
+        <v>587.2578783484167</v>
       </c>
       <c r="D2" t="n">
-        <v>469.5124493363701</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E2" t="n">
-        <v>469.5124493363701</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475503</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475503</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.710316572953</v>
+        <v>588.487006042434</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572953</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.03024017235</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V2" t="n">
-        <v>1652.63530161178</v>
+        <v>1733.055528520439</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.63530161178</v>
+        <v>1733.055528520439</v>
       </c>
       <c r="X2" t="n">
-        <v>1263.182696544837</v>
+        <v>1343.602923453496</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.182696544837</v>
+        <v>987.7526240598136</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021465</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622387</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D3" t="n">
-        <v>442.058626788223</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991107</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822425</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430373</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021354</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635816</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535685</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413235</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917589</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676006</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431079</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>659.5038901782084</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="C4" t="n">
-        <v>489.2987722441976</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="D4" t="n">
-        <v>333.6656591467124</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="E4" t="n">
-        <v>333.6656591467124</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="F4" t="n">
-        <v>333.6656591467124</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="G4" t="n">
-        <v>165.4116052461579</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="H4" t="n">
-        <v>165.4116052461579</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865308</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475503</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.55035638531</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>1419.67799625911</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597374</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628583</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670291</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>1839.443285985155</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>1839.443285985155</v>
       </c>
       <c r="V4" t="n">
-        <v>659.5038901782084</v>
+        <v>1839.443285985155</v>
       </c>
       <c r="W4" t="n">
-        <v>659.5038901782084</v>
+        <v>1556.112883916332</v>
       </c>
       <c r="X4" t="n">
-        <v>659.5038901782084</v>
+        <v>1322.032561699315</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.5038901782084</v>
+        <v>1173.715315275368</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.781755252927</v>
+        <v>1082.109407298434</v>
       </c>
       <c r="C5" t="n">
-        <v>1395.874219910693</v>
+        <v>688.9339058013647</v>
       </c>
       <c r="D5" t="n">
-        <v>1010.433091127361</v>
+        <v>688.9339058013647</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>688.9339058013647</v>
       </c>
       <c r="F5" t="n">
-        <v>190.955127773883</v>
+        <v>676.0798713717465</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1028.526606934763</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964324</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964324</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964324</v>
+        <v>1471.562012365378</v>
       </c>
       <c r="W5" t="n">
-        <v>1970.276500964324</v>
+        <v>1471.562012365378</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.276500964324</v>
+        <v>1082.109407298434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.276500964324</v>
+        <v>1082.109407298434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.8018246066505</v>
+        <v>580.1098290832513</v>
       </c>
       <c r="C6" t="n">
-        <v>572.1475941667427</v>
+        <v>429.4555986433435</v>
       </c>
       <c r="D6" t="n">
-        <v>442.058626788223</v>
+        <v>299.3666312648238</v>
       </c>
       <c r="E6" t="n">
-        <v>305.6121358991107</v>
+        <v>162.9201403757115</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822425</v>
+        <v>162.9201403757115</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>162.9201403757115</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>74.62272397631246</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475503</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>581.7544444048485</v>
+        <v>813.5918890426545</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875482</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182861</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635816</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535685</v>
+        <v>1940.23166071679</v>
       </c>
       <c r="T6" t="n">
-        <v>1905.939844439097</v>
+        <v>1763.247848915698</v>
       </c>
       <c r="U6" t="n">
-        <v>1695.876701117739</v>
+        <v>1553.18470559434</v>
       </c>
       <c r="V6" t="n">
-        <v>1473.336699488806</v>
+        <v>1330.644703965407</v>
       </c>
       <c r="W6" t="n">
-        <v>1243.219453622093</v>
+        <v>1100.527458098694</v>
       </c>
       <c r="X6" t="n">
-        <v>1053.912375972105</v>
+        <v>911.2203804487053</v>
       </c>
       <c r="Y6" t="n">
-        <v>874.5981590476118</v>
+        <v>731.9061635242126</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.7007773287658</v>
+        <v>530.5559309807402</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475503</v>
+        <v>530.5559309807402</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475503</v>
+        <v>530.5559309807402</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475503</v>
+        <v>530.5559309807402</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475503</v>
+        <v>373.2299961937131</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475503</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475503</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475503</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475503</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>535.6029008107853</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V7" t="n">
-        <v>535.6029008107853</v>
+        <v>707.231217466125</v>
       </c>
       <c r="W7" t="n">
-        <v>252.2724987419629</v>
+        <v>707.231217466125</v>
       </c>
       <c r="X7" t="n">
-        <v>213.7007773287658</v>
+        <v>707.231217466125</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.7007773287658</v>
+        <v>707.231217466125</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1886.395173071196</v>
+        <v>738.8057059491246</v>
       </c>
       <c r="C8" t="n">
-        <v>1493.219671574126</v>
+        <v>345.6302044520551</v>
       </c>
       <c r="D8" t="n">
-        <v>1493.219671574126</v>
+        <v>345.6302044520551</v>
       </c>
       <c r="E8" t="n">
-        <v>1090.636146690671</v>
+        <v>345.6302044520551</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.395173071196</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>1886.395173071196</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X8" t="n">
-        <v>1886.395173071196</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1886.395173071196</v>
+        <v>738.8057059491246</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>140.0776713099957</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522.8318476422887</v>
+        <v>871.8927692732682</v>
       </c>
       <c r="C10" t="n">
-        <v>366.2642166768698</v>
+        <v>701.6876513392574</v>
       </c>
       <c r="D10" t="n">
-        <v>366.2642166768698</v>
+        <v>546.0545382417722</v>
       </c>
       <c r="E10" t="n">
-        <v>366.2642166768698</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="F10" t="n">
-        <v>366.2642166768698</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.8318476422887</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1413.689529456423</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179666</v>
+        <v>1092.310303105548</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>778.6654494684094</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>447.878199731148</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185757</v>
+        <v>447.878199731148</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527727</v>
+        <v>106.511719365345</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654571</v>
+        <v>106.511719365345</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2835.645851055488</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.627098949699</v>
+        <v>2384.73876387558</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.970769028949</v>
+        <v>2067.082433954831</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>1742.388000021626</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.6496467242592</v>
+        <v>380.6485722465209</v>
       </c>
       <c r="C13" t="n">
-        <v>287.2408039364423</v>
+        <v>380.6485722465209</v>
       </c>
       <c r="D13" t="n">
-        <v>208.9469375616771</v>
+        <v>296.8117342952294</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616771</v>
+        <v>213.0491973006258</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208439</v>
+        <v>127.5195376597923</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208439</v>
+        <v>127.5195376597923</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208439</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593277</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593277</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.0626342958</v>
+        <v>1099.965602310117</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628183</v>
+        <v>905.782532277135</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401898</v>
+        <v>694.2484053545065</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693667</v>
+        <v>531.9643582836836</v>
       </c>
       <c r="Y13" t="n">
-        <v>499.0613902693667</v>
+        <v>380.6485722465209</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1373.02862075322</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1051.649394402344</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>738.0045407652055</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>407.2172910279439</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2913.591149208183</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2913.591149208183</v>
       </c>
       <c r="V14" t="n">
-        <v>3004.271952586837</v>
+        <v>2643.280615057895</v>
       </c>
       <c r="W14" t="n">
-        <v>3004.271952586837</v>
+        <v>2344.077855172377</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666088</v>
+        <v>2026.421525251628</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>1701.727091318423</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>463.0135798151583</v>
+        <v>327.9434040506005</v>
       </c>
       <c r="C16" t="n">
-        <v>387.4744316210997</v>
+        <v>327.9434040506005</v>
       </c>
       <c r="D16" t="n">
-        <v>303.6375936698083</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="E16" t="n">
-        <v>219.8750566752045</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752045</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208439</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208439</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138155</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1344.054400923799</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1180.131624238227</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457728</v>
+        <v>966.4891076263224</v>
       </c>
       <c r="V16" t="n">
-        <v>988.1475398457728</v>
+        <v>966.4891076263224</v>
       </c>
       <c r="W16" t="n">
-        <v>776.6134129231443</v>
+        <v>754.9549807036939</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3293658523212</v>
+        <v>592.6709336328709</v>
       </c>
       <c r="Y16" t="n">
-        <v>463.0135798151583</v>
+        <v>441.3551475957081</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
@@ -5501,10 +5501,10 @@
         <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5552,10 +5552,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,13 +5592,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
         <v>1223.947919817482</v>
@@ -5677,19 +5677,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.744905612751</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
         <v>1090.581152532863</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>378.9738643893075</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1490.311599914302</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>2071.291039114125</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2151.708391543553</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2315.836031417353</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2502.127609755617</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2685.317243786826</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2848.022010828534</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3096.954546227541</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>2930.774722921377</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,58 +6218,58 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429869</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985346</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904101</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122474</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628626</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.44903272825</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102265</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286442</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988157</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6455,58 +6455,58 @@
         <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>755.8323718938492</v>
+        <v>700.017864895835</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.204025341951</v>
+        <v>1286.389518343937</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236565</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985356</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796857</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X31" t="n">
         <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463681</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057103</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230778</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185737</v>
+        <v>682.8393851136181</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.946389737102</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508753</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146215</v>
+        <v>2293.032006377471</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038544</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897136</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>182.6625304604891</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>182.6625304604891</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>810.4341800871703</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1466.212151297729</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.73243388871</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965143</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918679</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123138</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.7304500837418</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803361</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812059</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194699</v>
+        <v>723.1136360743167</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777491</v>
+        <v>1017.955390680509</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1256.686073727024</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395539</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300096</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124435</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584512</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.783730761083</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7099,22 +7099,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,10 +7333,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
         <v>623.4297566485498</v>
@@ -7348,10 +7348,10 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222414</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960412</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343052</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655144</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072225</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838011</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.783730761083</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>312.6161996011404</v>
+        <v>193.5145772035916</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>381.0543803848241</v>
+        <v>203.8228999516371</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,13 +8219,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>637.999022549378</v>
       </c>
       <c r="N5" t="n">
-        <v>212.7983422525459</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8298,19 +8298,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837497</v>
+        <v>383.8240476937593</v>
       </c>
       <c r="N6" t="n">
-        <v>526.3032062588474</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>363.2059172909298</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>176.1461757257091</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,10 +8541,10 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,7 +8778,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9173,13 +9173,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,7 +9249,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
         <v>85.37211285416666</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>187.5973797276328</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>409.6522249143353</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,13 +9726,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,7 +10428,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
@@ -10437,13 +10437,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10665,22 +10665,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>376.8285690715891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.92676759911169</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>152.6421677019317</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>5.48754186076097</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681706</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.8454531333891</v>
+        <v>18.09904727726896</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845443</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362809</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>53.515807497456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>166.9398405160351</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>22.64099764782091</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442492</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.8454531333891</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901695</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>30.14181918175954</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326522</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>999239.3501545031</v>
+        <v>998036.2549269826</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>999239.3501545032</v>
+        <v>998036.2549269826</v>
       </c>
     </row>
     <row r="4">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306564.7027587066</v>
+        <v>306564.7027587068</v>
       </c>
       <c r="C2" t="n">
-        <v>306564.7027587066</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="D2" t="n">
-        <v>306564.7027587067</v>
+        <v>306564.7027587068</v>
       </c>
       <c r="E2" t="n">
-        <v>270910.3398214813</v>
+        <v>270910.3398214811</v>
       </c>
       <c r="F2" t="n">
         <v>270910.3398214812</v>
@@ -26329,31 +26329,31 @@
         <v>306564.7027587063</v>
       </c>
       <c r="H2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587064</v>
       </c>
       <c r="I2" t="n">
-        <v>306564.7027587064</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="J2" t="n">
-        <v>306564.7027587066</v>
+        <v>306564.7027587067</v>
       </c>
       <c r="K2" t="n">
         <v>306564.7027587065</v>
       </c>
       <c r="L2" t="n">
-        <v>306564.7027587062</v>
+        <v>306564.7027587067</v>
       </c>
       <c r="M2" t="n">
-        <v>306564.7027587064</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="N2" t="n">
         <v>306564.7027587063</v>
       </c>
       <c r="O2" t="n">
+        <v>306564.7027587065</v>
+      </c>
+      <c r="P2" t="n">
         <v>306564.7027587064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>306564.7027587063</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062169</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728543</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277113</v>
+        <v>27767.69404277128</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840228</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>125701.6674923645</v>
+        <v>125701.6674923646</v>
       </c>
       <c r="F4" t="n">
-        <v>125701.6674923645</v>
+        <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
         <v>173460.5839839468</v>
@@ -26436,16 +26436,16 @@
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="J4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.07644833</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.07644833</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153009.4561571861</v>
+        <v>-148658.010342891</v>
       </c>
       <c r="C6" t="n">
-        <v>29195.49213466997</v>
+        <v>25200.64669116364</v>
       </c>
       <c r="D6" t="n">
-        <v>22027.17111299874</v>
+        <v>14290.88188960688</v>
       </c>
       <c r="E6" t="n">
-        <v>-20099.90884476824</v>
+        <v>-20309.64039145813</v>
       </c>
       <c r="F6" t="n">
-        <v>92022.65262927618</v>
+        <v>91812.92108258653</v>
       </c>
       <c r="G6" t="n">
-        <v>27509.02392255783</v>
+        <v>27509.02392255794</v>
       </c>
       <c r="H6" t="n">
+        <v>74934.34945923998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>74934.34945924007</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-131591.282983472</v>
+      </c>
+      <c r="K6" t="n">
+        <v>68694.58105645701</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9463.154911363919</v>
+      </c>
+      <c r="M6" t="n">
+        <v>31681.82498842885</v>
+      </c>
+      <c r="N6" t="n">
         <v>74934.34945923992</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>47166.6554164688</v>
+      </c>
+      <c r="P6" t="n">
         <v>74934.34945923998</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-138107.5681380455</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68694.58105645713</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13511.99212183572</v>
-      </c>
-      <c r="M6" t="n">
-        <v>32733.51999961701</v>
-      </c>
-      <c r="N6" t="n">
-        <v>74934.34945923986</v>
-      </c>
-      <c r="O6" t="n">
-        <v>47166.65541646886</v>
-      </c>
-      <c r="P6" t="n">
-        <v>74934.34945923992</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095211</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660679</v>
+        <v>78.07030221924602</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551366</v>
+        <v>17.58004954287426</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.7096175534641</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773721</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346413</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344379</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348572</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>74.95475202855192</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>40.23400558885947</v>
       </c>
     </row>
     <row r="3">
@@ -27461,16 +27461,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.31852263745887</v>
+        <v>23.5601654399825</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>41.14118218856312</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>74.04686661181518</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>217.075286493287</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>238.5962352552569</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>16.10509900043322</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>66.31852263745894</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>8.447404883857274</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,19 +27783,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>193.5535147957816</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27859,16 +27859,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>109.7088971481375</v>
+        <v>126.4225600351925</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>107.2573873682586</v>
       </c>
       <c r="C10" t="n">
-        <v>13.50111209890596</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473185</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28749,22 +28749,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="R22" t="n">
         <v>130.3599693155844</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5.636002634529234</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431482</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K29" t="n">
-        <v>86.65052755599567</v>
+        <v>30.27223765901164</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="32">
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.6599273883354</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159692</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254537</v>
+        <v>76.79385455031036</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30171,17 +30171,17 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,14 +30405,14 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,10 +30639,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529262</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30876,23 +30876,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,13 +34702,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>162.8911480034131</v>
+        <v>43.78952560586429</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>295.6822675306574</v>
+        <v>118.4507870974704</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,13 +34939,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344379</v>
+        <v>488.2739709516508</v>
       </c>
       <c r="N5" t="n">
-        <v>63.67985091476178</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344379</v>
+        <v>291.4369256444473</v>
       </c>
       <c r="N6" t="n">
-        <v>440.9310934046807</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>209.9577475604382</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.70171839237574</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,10 +35261,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,7 +35498,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257278</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815418</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167518</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488434</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257278</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815418</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167518</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488434</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,13 +35893,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,7 +35969,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565488</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2252668734662</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>294.0834769302979</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R22" t="n">
         <v>7.697989841835579</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>320.0552895810019</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,13 +36446,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681717</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>456.5997149060962</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039237</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698323</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271068</v>
       </c>
       <c r="N28" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877753</v>
+        <v>392.8806780907913</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,7 +36841,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698323</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>411.268367820115</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765081</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184965</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066584</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37148,7 +37148,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791166</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220907</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750295</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496242</v>
+        <v>241.1421040873892</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37467,16 +37467,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>286.7682222146709</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133924</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
